--- a/006-funcoesBasicas/01-criandoSequenciasNumericas.xlsx
+++ b/006-funcoesBasicas/01-criandoSequenciasNumericas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Imp\Módulo 5 - Funções Básicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\006-funcoesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDC45A-1D75-4D27-81F3-3745D10A8043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF5A1FD-A8BF-4D62-9476-B3A90AA15C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Mês</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>^</t>
+  </si>
+  <si>
+    <t>segunda-feira</t>
+  </si>
+  <si>
+    <t>terça-feira</t>
+  </si>
+  <si>
+    <t>quarta-feira</t>
+  </si>
+  <si>
+    <t>quinta-feira</t>
+  </si>
+  <si>
+    <t>sexta-feira</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>domingo</t>
   </si>
 </sst>
 </file>
@@ -78,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +119,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -142,7 +172,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,17 +490,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61902A4C-1238-4B7D-913A-66992EF70C8D}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -477,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -493,7 +526,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43862</v>
       </c>
@@ -509,7 +542,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43891</v>
       </c>
@@ -524,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43922</v>
       </c>
@@ -540,7 +573,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43952</v>
       </c>
@@ -556,7 +589,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43983</v>
       </c>
@@ -564,7 +597,7 @@
         <v>32316</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44013</v>
       </c>
@@ -572,7 +605,7 @@
         <v>35981</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44044</v>
       </c>
@@ -580,7 +613,7 @@
         <v>32155</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44075</v>
       </c>
@@ -588,7 +621,7 @@
         <v>38220</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44105</v>
       </c>
@@ -596,7 +629,7 @@
         <v>19730</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44136</v>
       </c>
@@ -604,7 +637,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44166</v>
       </c>
@@ -612,20 +645,336 @@
         <v>34224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF157-FB35-43FB-8E1B-996CDEB5CB1E}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="7">
+        <v>35528</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B3" s="7">
+        <v>33622</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44214</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43891</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10692</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15917</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="7">
+        <v>22805</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15019</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B9" s="7">
+        <v>13931</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44044</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B10" s="7">
+        <v>26822</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B11" s="7">
+        <v>38994</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44105</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B12" s="7">
+        <v>33019</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44136</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B13" s="7">
+        <v>48729</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>